--- a/files/shedule.xlsx
+++ b/files/shedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Shedule" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Понедельник</t>
   </si>
@@ -94,6 +94,63 @@
   </si>
   <si>
     <t>3) 1 н: Финансовая грамотность; 2 н: Основы предпринимательской деятельности</t>
+  </si>
+  <si>
+    <t>ИБ-21</t>
+  </si>
+  <si>
+    <t>ИБ-23</t>
+  </si>
+  <si>
+    <t>3) Теория информационных систем</t>
+  </si>
+  <si>
+    <t>4) Электроника и смехотехника</t>
+  </si>
+  <si>
+    <t>1) Финансовая грамотность</t>
+  </si>
+  <si>
+    <t>2) Электроника и смехотехника</t>
+  </si>
+  <si>
+    <t>3) Технические средства информатизации</t>
+  </si>
+  <si>
+    <t>2) Основы предпринимательской деятельности</t>
+  </si>
+  <si>
+    <t>3) Теория вероятностей и математическая статистика</t>
+  </si>
+  <si>
+    <t>4) 1 н:  Русский язык и культура речи; 2 н: Организационно-правовое обеспечение информационной безопасности</t>
+  </si>
+  <si>
+    <t>3) Русский язык и культура речи</t>
+  </si>
+  <si>
+    <t>4) Физическая культура</t>
+  </si>
+  <si>
+    <t>5) Иностранный язык</t>
+  </si>
+  <si>
+    <t>2) ------------------</t>
+  </si>
+  <si>
+    <t>1) Организационно-правовое обеспечение информационной безопасности</t>
+  </si>
+  <si>
+    <t>2) 1 н: Финансовая грамотность; 2 н: Основы предпринимательской деятельности</t>
+  </si>
+  <si>
+    <t>3) Информатика</t>
+  </si>
+  <si>
+    <t>4) Основы алгоритмизации и программирования</t>
+  </si>
+  <si>
+    <t>5) ------------------</t>
   </si>
 </sst>
 </file>
@@ -153,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -165,7 +222,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,182 +513,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="C22" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="C27" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C28" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C29" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/shedule.xlsx
+++ b/files/shedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Shedule" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>Понедельник</t>
   </si>
@@ -151,6 +151,51 @@
   </si>
   <si>
     <t>5) ------------------</t>
+  </si>
+  <si>
+    <t>1) Теория информационных систем</t>
+  </si>
+  <si>
+    <t>2) 1 н: Организационно-правовое обеспечение информационной безопасности; 2 н: Основы алгоритмизации и программирования</t>
+  </si>
+  <si>
+    <t>3) 1 н: Основы алгоритмизации и программирования; 2 н: Финансовая грамотность</t>
+  </si>
+  <si>
+    <t>1) Электроника и смехотехника</t>
+  </si>
+  <si>
+    <t>3) Финансовая грамотность</t>
+  </si>
+  <si>
+    <t>4) Русский язык и культура речи</t>
+  </si>
+  <si>
+    <t>2) Теория вероятностей и математическая статистика</t>
+  </si>
+  <si>
+    <t>3) Основы предпринимательской деятельности</t>
+  </si>
+  <si>
+    <t>4) 1 н: Основы алгоритмизации и программирования; 2 н: Русский язык и культура речи</t>
+  </si>
+  <si>
+    <t>2) Физическая культура</t>
+  </si>
+  <si>
+    <t>3) Иностранный язык</t>
+  </si>
+  <si>
+    <t>4) 1 н:  Организационно-правовое обеспечение информационной безопасности; 2 н: Основы алгоритмизации и программирования</t>
+  </si>
+  <si>
+    <t>1) 1 н: Финансовая грамотность; 2 н: ------------------</t>
+  </si>
+  <si>
+    <t>2) Информатика</t>
+  </si>
+  <si>
+    <t>1) 1 н: ------------------; 2 н: Организационно-правовое обеспечение информационной безопасности</t>
   </si>
 </sst>
 </file>
@@ -210,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -226,9 +271,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -516,28 +558,28 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -548,8 +590,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -557,8 +601,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -566,8 +612,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -575,8 +623,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -584,8 +634,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
@@ -593,7 +645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -604,8 +656,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -613,8 +667,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -622,8 +678,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
@@ -631,8 +689,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -640,8 +700,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
@@ -649,7 +711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -660,8 +722,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
@@ -669,8 +733,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -678,8 +744,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
@@ -687,8 +755,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
@@ -696,8 +766,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
@@ -705,7 +777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -716,8 +788,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
@@ -725,8 +799,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -734,8 +810,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
@@ -743,8 +821,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -752,8 +832,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
@@ -761,7 +843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -772,8 +854,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
@@ -781,8 +865,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
@@ -790,8 +876,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
@@ -799,8 +887,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="B30" s="5" t="s">
         <v>23</v>
       </c>
@@ -808,7 +898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -819,37 +909,37 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
   </sheetData>
